--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\proyectoalmacen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="94">
   <si>
     <t>id_ficha</t>
   </si>
@@ -242,9 +242,6 @@
     <t>tc  en seguridad vial control de transito y transporte</t>
   </si>
   <si>
-    <t>jhon kevin florez perea</t>
-  </si>
-  <si>
     <t>gestion integrada de sistemas de calidad ambiental seguridad y salud ocupacional HSEQ</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>tc patronaje industrial de prendas de vestir (b)</t>
   </si>
   <si>
-    <t>gladys frencelli</t>
-  </si>
-  <si>
     <t>tgo en gestion integrada de la calidad medio ambiente seguridad y salud ocupacional (a)</t>
   </si>
   <si>
@@ -306,12 +300,18 @@
   </si>
   <si>
     <t>00/00/0000</t>
+  </si>
+  <si>
+    <t>jhon kevin florez pena</t>
+  </si>
+  <si>
+    <t>numero_documento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -628,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,13 +639,14 @@
     <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,22 +660,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1132816</v>
       </c>
@@ -687,23 +691,26 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
+        <v>1053811426</v>
+      </c>
+      <c r="F2" s="1">
         <v>42471</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>43020</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>43201</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1323395</v>
       </c>
@@ -716,23 +723,26 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
+        <v>1053811426</v>
+      </c>
+      <c r="F3" s="1">
         <v>42842</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
         <v>43572</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1368665</v>
       </c>
@@ -745,23 +755,26 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
+        <v>1053811426</v>
+      </c>
+      <c r="F4" s="1">
         <v>42842</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1375843</v>
       </c>
@@ -774,23 +787,26 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
+        <v>75091293</v>
+      </c>
+      <c r="F5" s="1">
         <v>42842</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1132770</v>
       </c>
@@ -803,23 +819,26 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>93</v>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1">
+        <v>91</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
         <v>43025</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1094381</v>
       </c>
@@ -832,23 +851,26 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7">
+        <v>1053770404</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
         <v>42943</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1261608</v>
       </c>
@@ -861,23 +883,26 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8">
+        <v>10245454</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
         <v>43338</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
       <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1261604</v>
       </c>
@@ -890,23 +915,26 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9">
+        <v>75091846</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1">
         <v>43216</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
       <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1301351</v>
       </c>
@@ -919,23 +947,26 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
+        <v>10245454</v>
+      </c>
+      <c r="F10" s="1">
         <v>42653</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1">
         <v>43080</v>
       </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1368569</v>
       </c>
@@ -948,23 +979,26 @@
       <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
+        <v>1053782472</v>
+      </c>
+      <c r="F11" s="1">
         <v>42842</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1075391</v>
       </c>
@@ -977,23 +1011,26 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="E12">
+        <v>1053770404</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1">
         <v>43006</v>
       </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
       <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1323382</v>
       </c>
@@ -1006,23 +1043,26 @@
       <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
+        <v>1053770404</v>
+      </c>
+      <c r="F13" s="1">
         <v>42758</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
         <v>43669</v>
       </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
       <c r="I13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1368604</v>
       </c>
@@ -1035,23 +1075,26 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
+        <v>75091846</v>
+      </c>
+      <c r="F14" s="1">
         <v>42842</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1132795</v>
       </c>
@@ -1064,23 +1107,26 @@
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="E15">
+        <v>75096903</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1">
         <v>43019</v>
       </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
       <c r="I15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1132701</v>
       </c>
@@ -1093,23 +1139,26 @@
       <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16">
+        <v>16071103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1182104</v>
       </c>
@@ -1122,23 +1171,26 @@
       <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="E17">
+        <v>10271981</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1">
         <v>42927</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>45</v>
       </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1197616</v>
       </c>
@@ -1151,23 +1203,26 @@
       <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
+        <v>10279373</v>
+      </c>
+      <c r="F18" s="1">
         <v>42562</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1">
         <v>43111</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1368653</v>
       </c>
@@ -1180,23 +1235,26 @@
       <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
+        <v>75091293</v>
+      </c>
+      <c r="F19" s="1">
         <v>42842</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1132756</v>
       </c>
@@ -1209,23 +1267,26 @@
       <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20">
+        <v>10279010</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1">
         <v>43020</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1197544</v>
       </c>
@@ -1238,23 +1299,26 @@
       <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
+      <c r="E21">
+        <v>30287195</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1">
         <v>43111</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1197576</v>
       </c>
@@ -1267,23 +1331,26 @@
       <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22">
+        <v>94283555</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1">
         <v>43111</v>
       </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
       <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
         <v>12</v>
       </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1368673</v>
       </c>
@@ -1296,23 +1363,26 @@
       <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
+        <v>75073330</v>
+      </c>
+      <c r="F23" s="1">
         <v>42842</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
       <c r="G23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1368529</v>
       </c>
@@ -1325,23 +1395,26 @@
       <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
+        <v>75073330</v>
+      </c>
+      <c r="F24" s="1">
         <v>42842</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1323358</v>
       </c>
@@ -1354,23 +1427,26 @@
       <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
+        <v>30397958</v>
+      </c>
+      <c r="F25" s="1">
         <v>42758</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>43669</v>
       </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1367722</v>
       </c>
@@ -1383,23 +1459,26 @@
       <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
+        <v>30287195</v>
+      </c>
+      <c r="F26" s="1">
         <v>42838</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>43356</v>
       </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1114874</v>
       </c>
@@ -1412,23 +1491,26 @@
       <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
+      <c r="E27">
+        <v>75081636</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1">
         <v>43056</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>12</v>
       </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1343933</v>
       </c>
@@ -1441,23 +1523,26 @@
       <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28">
+        <v>11224476</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1">
         <v>42691</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>42872</v>
       </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
       <c r="I28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1368501</v>
       </c>
@@ -1470,23 +1555,26 @@
       <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
+        <v>1085297027</v>
+      </c>
+      <c r="F29" s="1">
         <v>42842</v>
       </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
       <c r="G29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1368642</v>
       </c>
@@ -1499,23 +1587,26 @@
       <c r="D30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
+        <v>9817289</v>
+      </c>
+      <c r="F30" s="1">
         <v>42842</v>
       </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
       <c r="G30" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1368642</v>
       </c>
@@ -1528,23 +1619,26 @@
       <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
+        <v>9817289</v>
+      </c>
+      <c r="F31" s="1">
         <v>42842</v>
       </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
       <c r="G31" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1306630</v>
       </c>
@@ -1555,25 +1649,28 @@
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="1">
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <v>16073677</v>
+      </c>
+      <c r="F32" s="1">
         <v>42804</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
       <c r="G32" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1368498</v>
       </c>
@@ -1584,155 +1681,170 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="1">
+        <v>92</v>
+      </c>
+      <c r="E33">
+        <v>16073677</v>
+      </c>
+      <c r="F33" s="1">
         <v>42842</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
       <c r="G33" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
         <v>12</v>
       </c>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1197693</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>74</v>
       </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
         <v>42562</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>43405</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>43292</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>20</v>
       </c>
-      <c r="I34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1261575</v>
       </c>
       <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
       <c r="D35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="1">
+        <v>74</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
         <v>42624</v>
       </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1">
         <v>43185</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="I35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1261575</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="1">
+        <v>74</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
         <v>42639</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>43185</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>43369</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>20</v>
       </c>
-      <c r="I36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1369525</v>
       </c>
       <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>80</v>
       </c>
-      <c r="D37" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="E37">
+        <v>30307343</v>
+      </c>
+      <c r="F37" s="1">
         <v>42842</v>
       </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1">
         <v>43268</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>20</v>
       </c>
-      <c r="I37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1369525</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
         <v>80</v>
       </c>
-      <c r="D38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
+      <c r="E38">
+        <v>30307343</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
@@ -1741,76 +1853,85 @@
         <v>14</v>
       </c>
       <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
         <v>20</v>
       </c>
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1368558</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="1">
+        <v>83</v>
+      </c>
+      <c r="E39">
+        <v>98392877</v>
+      </c>
+      <c r="F39" s="1">
         <v>42842</v>
       </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
       <c r="G39" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1368558</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="1">
+        <v>83</v>
+      </c>
+      <c r="E40">
+        <v>98392877</v>
+      </c>
+      <c r="F40" s="1">
         <v>42842</v>
       </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
       <c r="G40" t="s">
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1343983</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
@@ -1818,110 +1939,123 @@
       <c r="D41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" t="s">
-        <v>14</v>
+      <c r="E41">
+        <v>75081636</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1">
         <v>43055</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>12</v>
       </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1374264</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="1">
+        <v>87</v>
+      </c>
+      <c r="E42">
+        <v>30292725</v>
+      </c>
+      <c r="F42" s="1">
         <v>42786</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>42875</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>42967</v>
       </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
       <c r="I42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1362328</v>
       </c>
       <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="E43">
+        <v>25232397</v>
+      </c>
+      <c r="F43" s="1">
         <v>42772</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>42861</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>42953</v>
       </c>
-      <c r="H43" t="s">
-        <v>15</v>
-      </c>
       <c r="I43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1343061</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="1">
+        <v>90</v>
+      </c>
+      <c r="E44">
+        <v>1110506666</v>
+      </c>
+      <c r="F44" s="1">
         <v>42689</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>42870</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>42993</v>
       </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
       <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>